--- a/RELIANCE.NS_supertrend.xlsx
+++ b/RELIANCE.NS_supertrend.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K475"/>
+  <dimension ref="A1:K476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
         <v>45057</v>
       </c>
       <c r="B3" t="n">
-        <v>1136.770629882812</v>
+        <v>1136.770751953125</v>
       </c>
       <c r="C3" t="n">
         <v>1144.658081054688</v>
@@ -617,7 +617,7 @@
         <v>45062</v>
       </c>
       <c r="B6" t="n">
-        <v>1124.625244140625</v>
+        <v>1124.625122070312</v>
       </c>
       <c r="C6" t="n">
         <v>1132.428344726562</v>
@@ -675,7 +675,7 @@
         <v>45064</v>
       </c>
       <c r="B8" t="n">
-        <v>1115.573486328125</v>
+        <v>1115.573364257812</v>
       </c>
       <c r="C8" t="n">
         <v>1123.313720703125</v>
@@ -704,7 +704,7 @@
         <v>45065</v>
       </c>
       <c r="B9" t="n">
-        <v>1119.194091796875</v>
+        <v>1119.193969726562</v>
       </c>
       <c r="C9" t="n">
         <v>1126.95947265625</v>
@@ -737,7 +737,7 @@
         <v>45068</v>
       </c>
       <c r="B10" t="n">
-        <v>1125.175170898438</v>
+        <v>1125.175048828125</v>
       </c>
       <c r="C10" t="n">
         <v>1132.982055664062</v>
@@ -902,7 +902,7 @@
         <v>45075</v>
       </c>
       <c r="B15" t="n">
-        <v>1155.240966796875</v>
+        <v>1155.240844726562</v>
       </c>
       <c r="C15" t="n">
         <v>1163.256469726562</v>
@@ -935,7 +935,7 @@
         <v>45076</v>
       </c>
       <c r="B16" t="n">
-        <v>1154.942993164062</v>
+        <v>1154.943115234375</v>
       </c>
       <c r="C16" t="n">
         <v>1162.95654296875</v>
@@ -1001,7 +1001,7 @@
         <v>45078</v>
       </c>
       <c r="B18" t="n">
-        <v>1128.956176757812</v>
+        <v>1128.956298828125</v>
       </c>
       <c r="C18" t="n">
         <v>1136.789428710938</v>
@@ -1034,7 +1034,7 @@
         <v>45079</v>
       </c>
       <c r="B19" t="n">
-        <v>1125.266723632812</v>
+        <v>1125.266845703125</v>
       </c>
       <c r="C19" t="n">
         <v>1133.074340820312</v>
@@ -1133,7 +1133,7 @@
         <v>45084</v>
       </c>
       <c r="B22" t="n">
-        <v>1144.951782226562</v>
+        <v>1144.95166015625</v>
       </c>
       <c r="C22" t="n">
         <v>1152.895874023438</v>
@@ -1166,7 +1166,7 @@
         <v>45085</v>
       </c>
       <c r="B23" t="n">
-        <v>1145.63916015625</v>
+        <v>1145.639038085938</v>
       </c>
       <c r="C23" t="n">
         <v>1153.588012695312</v>
@@ -1199,7 +1199,7 @@
         <v>45086</v>
       </c>
       <c r="B24" t="n">
-        <v>1137.52685546875</v>
+        <v>1137.526977539062</v>
       </c>
       <c r="C24" t="n">
         <v>1145.419555664062</v>
@@ -1265,7 +1265,7 @@
         <v>45090</v>
       </c>
       <c r="B26" t="n">
-        <v>1155.355590820312</v>
+        <v>1155.35546875</v>
       </c>
       <c r="C26" t="n">
         <v>1163.371826171875</v>
@@ -1298,7 +1298,7 @@
         <v>45091</v>
       </c>
       <c r="B27" t="n">
-        <v>1169.563354492188</v>
+        <v>1169.5634765625</v>
       </c>
       <c r="C27" t="n">
         <v>1177.678344726562</v>
@@ -1661,7 +1661,7 @@
         <v>45107</v>
       </c>
       <c r="B38" t="n">
-        <v>1168.830200195312</v>
+        <v>1168.830078125</v>
       </c>
       <c r="C38" t="n">
         <v>1176.93994140625</v>
@@ -1694,7 +1694,7 @@
         <v>45110</v>
       </c>
       <c r="B39" t="n">
-        <v>1198.827270507812</v>
+        <v>1198.8271484375</v>
       </c>
       <c r="C39" t="n">
         <v>1207.145141601562</v>
@@ -1859,7 +1859,7 @@
         <v>45117</v>
       </c>
       <c r="B44" t="n">
-        <v>1253.527587890625</v>
+        <v>1253.527709960938</v>
       </c>
       <c r="C44" t="n">
         <v>1262.22509765625</v>
@@ -1892,7 +1892,7 @@
         <v>45118</v>
       </c>
       <c r="B45" t="n">
-        <v>1267.11669921875</v>
+        <v>1267.116821289062</v>
       </c>
       <c r="C45" t="n">
         <v>1275.908569335938</v>
@@ -2123,7 +2123,7 @@
         <v>45127</v>
       </c>
       <c r="B52" t="n">
-        <v>1300.89892578125</v>
+        <v>1300.898803710938</v>
       </c>
       <c r="C52" t="n">
         <v>1309.925048828125</v>
@@ -2255,7 +2255,7 @@
         <v>45133</v>
       </c>
       <c r="B56" t="n">
-        <v>1254.396484375</v>
+        <v>1254.396362304688</v>
       </c>
       <c r="C56" t="n">
         <v>1263.099975585938</v>
@@ -2321,7 +2321,7 @@
         <v>45135</v>
       </c>
       <c r="B58" t="n">
-        <v>1255.2158203125</v>
+        <v>1255.215942382812</v>
       </c>
       <c r="C58" t="n">
         <v>1263.925048828125</v>
@@ -2387,7 +2387,7 @@
         <v>45139</v>
       </c>
       <c r="B60" t="n">
-        <v>1247.941162109375</v>
+        <v>1247.941284179688</v>
       </c>
       <c r="C60" t="n">
         <v>1256.599975585938</v>
@@ -2420,7 +2420,7 @@
         <v>45140</v>
       </c>
       <c r="B61" t="n">
-        <v>1234.608764648438</v>
+        <v>1234.60888671875</v>
       </c>
       <c r="C61" t="n">
         <v>1243.175048828125</v>
@@ -2453,7 +2453,7 @@
         <v>45141</v>
       </c>
       <c r="B62" t="n">
-        <v>1229.419677734375</v>
+        <v>1229.419799804688</v>
       </c>
       <c r="C62" t="n">
         <v>1237.949951171875</v>
@@ -2486,7 +2486,7 @@
         <v>45142</v>
       </c>
       <c r="B63" t="n">
-        <v>1246.12890625</v>
+        <v>1246.128784179688</v>
       </c>
       <c r="C63" t="n">
         <v>1254.775024414062</v>
@@ -2618,7 +2618,7 @@
         <v>45148</v>
       </c>
       <c r="B67" t="n">
-        <v>1259.486083984375</v>
+        <v>1259.486206054688</v>
       </c>
       <c r="C67" t="n">
         <v>1268.224975585938</v>
@@ -2717,7 +2717,7 @@
         <v>45154</v>
       </c>
       <c r="B70" t="n">
-        <v>1278.702758789062</v>
+        <v>1278.702880859375</v>
       </c>
       <c r="C70" t="n">
         <v>1287.574951171875</v>
@@ -2750,7 +2750,7 @@
         <v>45155</v>
       </c>
       <c r="B71" t="n">
-        <v>1260.255859375</v>
+        <v>1260.255737304688</v>
       </c>
       <c r="C71" t="n">
         <v>1269</v>
@@ -16107,6 +16107,39 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
+        <v>1247.830684348743</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B476" t="n">
+        <v>1186.099975585938</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1186.099975585938</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1189.800048828125</v>
+      </c>
+      <c r="E476" t="n">
+        <v>1168</v>
+      </c>
+      <c r="F476" t="n">
+        <v>1169.5</v>
+      </c>
+      <c r="G476" t="n">
+        <v>5366952</v>
+      </c>
+      <c r="H476" t="n">
+        <v>1247.830684348743</v>
+      </c>
+      <c r="I476" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="n">
         <v>1247.830684348743</v>
       </c>
     </row>
